--- a/data/교통량증감률(2023-2024).xlsx
+++ b/data/교통량증감률(2023-2024).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MBCAcademy_PJ1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13C1B74-F32D-49DF-B8B0-37F10236F5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1BB4E9-8D9F-494B-A77D-9EB69E4CB6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1500" windowWidth="23010" windowHeight="12210" activeTab="1" xr2:uid="{CB6CD010-99D5-44A8-A0CD-22251E1AAB02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CB6CD010-99D5-44A8-A0CD-22251E1AAB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>유형</t>
   </si>
@@ -89,6 +89,155 @@
   </si>
   <si>
     <t>계 (합계)</t>
+  </si>
+  <si>
+    <t>지점</t>
+  </si>
+  <si>
+    <t>2022년(양방)</t>
+  </si>
+  <si>
+    <t>2022년(유입)</t>
+  </si>
+  <si>
+    <t>2022년(유출)</t>
+  </si>
+  <si>
+    <t>2023년(유입)</t>
+  </si>
+  <si>
+    <t>2023년(유출)</t>
+  </si>
+  <si>
+    <t>증감(유입)</t>
+  </si>
+  <si>
+    <t>증감(유출)</t>
+  </si>
+  <si>
+    <t>계</t>
+  </si>
+  <si>
+    <t>77 (0.8%)</t>
+  </si>
+  <si>
+    <t>28 (0.6%)</t>
+  </si>
+  <si>
+    <t>49 (1.0%)</t>
+  </si>
+  <si>
+    <t>21 (2.2%)</t>
+  </si>
+  <si>
+    <t>7 (1.5%)</t>
+  </si>
+  <si>
+    <t>14 (3.0%)</t>
+  </si>
+  <si>
+    <t>31 (1.1%)</t>
+  </si>
+  <si>
+    <t>13 (0.9%)</t>
+  </si>
+  <si>
+    <t>18 (1.2%)</t>
+  </si>
+  <si>
+    <t>-7 (-0.4%)</t>
+  </si>
+  <si>
+    <t>-6 (-0.6%)</t>
+  </si>
+  <si>
+    <t>-1 (-0.1%)</t>
+  </si>
+  <si>
+    <t>27 (0.9%)</t>
+  </si>
+  <si>
+    <t>12 (0.8%)</t>
+  </si>
+  <si>
+    <t>15 (1.0%)</t>
+  </si>
+  <si>
+    <t>5 (0.4%)</t>
+  </si>
+  <si>
+    <t>2 (0.3%)</t>
+  </si>
+  <si>
+    <t>3 (0.4%)</t>
+  </si>
+  <si>
+    <t>22-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년(양방)</t>
+  </si>
+  <si>
+    <t>2021년(유입)</t>
+  </si>
+  <si>
+    <t>2021년(유출)</t>
+  </si>
+  <si>
+    <t>33 (0.3%)</t>
+  </si>
+  <si>
+    <t>13 (0.3%)</t>
+  </si>
+  <si>
+    <t>20 (0.4%)</t>
+  </si>
+  <si>
+    <t>7 (0.7%)</t>
+  </si>
+  <si>
+    <t>5 (1.1%)</t>
+  </si>
+  <si>
+    <t>2 (0.4%)</t>
+  </si>
+  <si>
+    <t>5 (0.2%)</t>
+  </si>
+  <si>
+    <t>2 (0.1%)</t>
+  </si>
+  <si>
+    <t>3 (0.2%)</t>
+  </si>
+  <si>
+    <t>5 (0.3%)</t>
+  </si>
+  <si>
+    <t>0 (0.0%)</t>
+  </si>
+  <si>
+    <t>8 (0.5%)</t>
+  </si>
+  <si>
+    <t>1 (0.0%)</t>
+  </si>
+  <si>
+    <t>1 (0.1%)</t>
+  </si>
+  <si>
+    <t>15 (1.2%)</t>
+  </si>
+  <si>
+    <t>6 (0.9%)</t>
+  </si>
+  <si>
+    <t>9 (1.4%)</t>
+  </si>
+  <si>
+    <t>21-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -155,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +322,12 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +646,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,7 +721,7 @@
         <v>270</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:M7" si="0">C2+C11</f>
+        <f t="shared" ref="J2:K7" si="0">C2+C11</f>
         <v>18772</v>
       </c>
       <c r="K2">
@@ -967,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B87A3A8-70C8-4CC3-80F7-AF4B4DA38A8F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -978,7 +1133,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1173,7 @@
         <v>-0.34093330492222457</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1193,7 @@
         <v>-0.28620492272467085</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,7 +1213,7 @@
         <v>-0.16204537270435723</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1233,7 @@
         <v>-0.71083309638896786</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1253,7 @@
         <v>-0.45618703668504085</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,6 +1271,614 @@
       </c>
       <c r="F7">
         <v>-3.7133308577794281E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>139</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10188</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10265</v>
+      </c>
+      <c r="E11" s="6">
+        <f>D11-C11</f>
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <f>((D11-C11)/C11)*100</f>
+        <v>0.7557911268158618</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5076</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5112</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5104</v>
+      </c>
+      <c r="S11" s="3">
+        <v>5161</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>953</v>
+      </c>
+      <c r="D12" s="2">
+        <v>974</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:E16" si="0">D12-C12</f>
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F16" si="1">((D12-C12)/C12)*100</f>
+        <v>2.2035676810073452</v>
+      </c>
+      <c r="O12" s="2">
+        <v>479</v>
+      </c>
+      <c r="P12" s="2">
+        <v>474</v>
+      </c>
+      <c r="R12" s="2">
+        <v>486</v>
+      </c>
+      <c r="S12" s="2">
+        <v>488</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2920</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2951</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1.0616438356164384</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1440</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1480</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1453</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1498</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1902</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1895</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-0.36803364879074657</v>
+      </c>
+      <c r="O14" s="2">
+        <v>943</v>
+      </c>
+      <c r="P14" s="2">
+        <v>959</v>
+      </c>
+      <c r="R14" s="2">
+        <v>937</v>
+      </c>
+      <c r="S14" s="2">
+        <v>958</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3036</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3063</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.8893280632411068</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1526</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1510</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1538</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1525</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1377</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1382</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.36310820624546114</v>
+      </c>
+      <c r="O16" s="2">
+        <v>688</v>
+      </c>
+      <c r="P16" s="2">
+        <v>689</v>
+      </c>
+      <c r="R16" s="2">
+        <v>690</v>
+      </c>
+      <c r="S16" s="2">
+        <v>692</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>135</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9932</v>
+      </c>
+      <c r="D20" s="3">
+        <v>9965</v>
+      </c>
+      <c r="E20" s="6">
+        <f>D20-C20</f>
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <f>((D20-C20)/C20)*100</f>
+        <v>0.3322593636729762</v>
+      </c>
+      <c r="O20" s="3">
+        <v>4958</v>
+      </c>
+      <c r="P20" s="3">
+        <v>4974</v>
+      </c>
+      <c r="R20" s="3">
+        <v>4971</v>
+      </c>
+      <c r="S20" s="3">
+        <v>4994</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>946</v>
+      </c>
+      <c r="D21" s="2">
+        <v>953</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21:E25" si="2">D21-C21</f>
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F25" si="3">((D21-C21)/C21)*100</f>
+        <v>0.73995771670190269</v>
+      </c>
+      <c r="O21" s="2">
+        <v>474</v>
+      </c>
+      <c r="P21" s="2">
+        <v>472</v>
+      </c>
+      <c r="R21" s="2">
+        <v>479</v>
+      </c>
+      <c r="S21" s="2">
+        <v>474</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2845</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2850</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0.17574692442882248</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1404</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1441</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1406</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1444</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1843</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1848</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.27129679869777534</v>
+      </c>
+      <c r="O23" s="2">
+        <v>920</v>
+      </c>
+      <c r="P23" s="2">
+        <v>923</v>
+      </c>
+      <c r="R23" s="2">
+        <v>920</v>
+      </c>
+      <c r="S23" s="2">
+        <v>928</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3035</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3036</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>3.2948929159802305E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1526</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1509</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1526</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1510</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1263</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1278</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>1.1876484560570071</v>
+      </c>
+      <c r="O25" s="2">
+        <v>634</v>
+      </c>
+      <c r="P25" s="2">
+        <v>629</v>
+      </c>
+      <c r="R25" s="2">
+        <v>640</v>
+      </c>
+      <c r="S25" s="2">
+        <v>638</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
